--- a/biology/Médecine/Volémie/Volémie.xlsx
+++ b/biology/Médecine/Volémie/Volémie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vol%C3%A9mie</t>
+          <t>Volémie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La volémie est le volume total du sang circulant dans l'organisme[1]. La volémie est répartie en volume plasmatique et volume globulaire (essentiellement le volume des globules rouges)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La volémie est le volume total du sang circulant dans l'organisme. La volémie est répartie en volume plasmatique et volume globulaire (essentiellement le volume des globules rouges).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vol%C3%A9mie</t>
+          <t>Volémie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Être humain</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La volémie d'un être humain est de 65 à 75 ml/kg[3] (environ 5 litres), les adultes ayant plus de sang que les enfants, les femmes ayant un peu moins de sang que les hommes[4][source insuffisante].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La volémie d'un être humain est de 65 à 75 ml/kg (environ 5 litres), les adultes ayant plus de sang que les enfants, les femmes ayant un peu moins de sang que les hommes[source insuffisante].
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vol%C3%A9mie</t>
+          <t>Volémie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Volume sanguin spécifique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tableau ci-contre donne les volumes sanguins de divers animaux en millilitres par kilogramme. Il peut varier selon l'âge et la condition physique. Par exemple, il peut être 15% inférieur aux valeurs indiquées pour un sujet obèse ou très vieux.
 </t>
